--- a/P评级/Brief-rating/简评模型说明.xlsx
+++ b/P评级/Brief-rating/简评模型说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="15075" windowHeight="6045" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="15075" windowHeight="6045" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="模块说明" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="73">
   <si>
     <t>简评分析模型
 说明：根据5C原则来判断项目的风险。风险指的是该项目实现其公开承诺（白皮书、官网、官方新闻）的可能性</t>
@@ -306,6 +306,10 @@
   </si>
   <si>
     <t>外部环境影响使用统一币种，理由是剔除该币种本身的波动对货币对值的影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重点在token经济模型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,7 +452,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -466,7 +470,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -848,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -987,7 +991,7 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B11" s="13"/>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1041,7 +1045,7 @@
       <c r="B15" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1081,7 +1085,7 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="13"/>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="15" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -1135,7 +1139,7 @@
       <c r="B22" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="9"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="1" t="s">
         <v>45</v>
       </c>
@@ -1187,7 +1191,7 @@
       <c r="B26" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="9"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="1" t="s">
         <v>53</v>
       </c>
@@ -1257,12 +1261,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="B3:B14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C18:C21"/>
     <mergeCell ref="F3:F6"/>
     <mergeCell ref="F7:F10"/>
     <mergeCell ref="F18:F21"/>
@@ -1270,11 +1273,12 @@
     <mergeCell ref="F26:F28"/>
     <mergeCell ref="F11:F14"/>
     <mergeCell ref="F15:F17"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="B3:B14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B15:B21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1284,10 +1288,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M4"/>
+  <dimension ref="B2:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1325,6 +1329,11 @@
       </c>
       <c r="C4" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
